--- a/Surrey_Market_Analysis.xlsx
+++ b/Surrey_Market_Analysis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Revenue - 3M (50%)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Revenue - 12M (65%)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Revenue - 24M (82.5%)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Revenue - 36M (100%)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Unit Type Analysis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Market Analysis" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sensitivity Analysis" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Risk Analysis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Recommendations" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue - 3M (50%)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue - 12M (65%)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue - 24M (82.5%)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue - 36M (100%)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unit Type Analysis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Analysis" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sensitivity Analysis" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Risk Analysis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recommendations" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -246,13 +246,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -275,7 +275,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="20000">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -285,7 +285,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -310,7 +310,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="20000">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -320,7 +320,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -348,8 +348,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -375,8 +375,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -402,13 +402,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -431,7 +431,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="20000">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -441,7 +441,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -469,8 +469,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -496,8 +496,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -523,13 +523,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -553,10 +553,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="0000FF"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -584,8 +584,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -611,8 +611,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -638,13 +638,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -668,7 +668,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -692,7 +692,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -732,8 +732,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -759,13 +759,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -784,7 +784,7 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -824,8 +824,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -851,13 +851,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -876,7 +876,7 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -916,8 +916,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -958,9 +958,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -980,9 +980,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1002,9 +1002,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -1029,9 +1029,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1051,9 +1051,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1073,9 +1073,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>31.3%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>31.3%</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>3.1% monthly</t>
+          <t>2.5% monthly</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>37.5% annual</t>
+          <t>30.4% annual</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>3.2% monthly</t>
+          <t>2.6% monthly</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>38.6% annual</t>
+          <t>31.1% annual</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>3.2% monthly</t>
+          <t>2.6% monthly</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>38.9% annual</t>
+          <t>31.4% annual</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>3.0% monthly</t>
+          <t>2.4% monthly</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>35.6% annual</t>
+          <t>28.9% annual</t>
         </is>
       </c>
     </row>
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.125621710350737</v>
+        <v>2.535264662675533</v>
       </c>
       <c r="C46" t="n">
-        <v>37.50746052420885</v>
+        <v>30.4231759521064</v>
       </c>
     </row>
     <row r="47">
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.219203198684591</v>
+        <v>2.594499818345522</v>
       </c>
       <c r="C47" t="n">
-        <v>38.63043838421509</v>
+        <v>31.13399782014627</v>
       </c>
     </row>
     <row r="48">
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.245241879304007</v>
+        <v>2.615485555488377</v>
       </c>
       <c r="C48" t="n">
-        <v>38.94290255164807</v>
+        <v>31.38582666586052</v>
       </c>
     </row>
     <row r="49">
@@ -1798,10 +1798,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.965333417512237</v>
+        <v>2.405251090230634</v>
       </c>
       <c r="C49" t="n">
-        <v>35.58400101014684</v>
+        <v>28.86301308276761</v>
       </c>
     </row>
     <row r="51">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="B69" s="5" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="C69" s="5" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>30.4%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
     </row>
@@ -1977,12 +1977,12 @@
       </c>
       <c r="B70" s="5" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="C70" s="5" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>31.1%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="B71" s="5" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>31.4%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2031,12 +2031,12 @@
       </c>
       <c r="B72" s="5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
-          <t>35.6%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2060,7 +2060,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>• Two Bed shows strongest absorption at 3.2% monthly (38.9% annualized)</t>
+          <t>• Two Bed shows strongest absorption at 2.6% monthly (31.4% annualized)</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>• Absorption risk: Current rate 38.8% vs 5.4% target</t>
+          <t>• Absorption risk: Current rate 31.3% vs 5.4% target</t>
         </is>
       </c>
     </row>
@@ -2660,21 +2660,21 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>• One beds showing 3.2% monthly absorption</t>
+          <t>• One beds showing 2.6% monthly absorption</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>• Two beds at 3.2% monthly absorption</t>
+          <t>• Two beds at 2.6% monthly absorption</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>• Studios at 3.1% monthly absorption</t>
+          <t>• Studios at 2.5% monthly absorption</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$1213.48</t>
+          <t>$1209.80</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -2876,12 +2876,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>$1136.84</t>
+          <t>$1134.90</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>$1108.36</t>
+          <t>$1105.93</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -2968,62 +2968,62 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$1314.23</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$1241.95</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$1203.43</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>$1143.26</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>$1128.90</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>5.5%</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>$1241.95</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$1213.48</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>$1146.74</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>$1136.84</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>$1066.81</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>$1100.04</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>6.0%</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>$1068.63</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>$1108.36</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8452701.878895678</v>
+        <v>8378943.572797111</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>$1311.92</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -3077,12 +3077,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$1307.32</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -3092,47 +3092,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$1207.09</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>$1130.82</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>$1102.47</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -3151,11 +3151,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58566006.26858202</v>
+        <v>57878948.92387691</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.9%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$1211.34</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54131239.90555188</v>
+        <v>53564948.98647839</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3202,12 +3202,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$1134.83</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9370036.97236296</v>
+        <v>9266988.085042574</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$1106.39</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>130519985.0253925</v>
+        <v>129089829.568195</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55442485.93425765</v>
+        <v>55274396.22230245</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50973584.24439469</v>
+        <v>50886701.53715447</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3438,12 +3438,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8776601.297446638</v>
+        <v>8757303.740365233</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3477,12 +3477,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>123194562.5881202</v>
+        <v>122920292.6118434</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$1213.48</t>
+          <t>$1209.80</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -3689,12 +3689,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>$1136.84</t>
+          <t>$1134.90</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>$1108.36</t>
+          <t>$1105.93</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -3781,62 +3781,62 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$1314.23</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$1241.95</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$1203.43</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>$1143.26</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>$1128.90</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>5.5%</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>$1241.95</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$1213.48</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>$1146.74</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>$1136.84</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>$1066.81</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>$1100.04</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>6.0%</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>$1068.63</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>$1108.36</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -3890,12 +3890,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$1307.32</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -3905,47 +3905,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$1207.09</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>$1130.82</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>$1102.47</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -3964,11 +3964,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75206921.43355277</v>
+        <v>74978910.19726384</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.9%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$1192.97</t>
+          <t>$1189.35</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -4039,12 +4039,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69297421.71786989</v>
+        <v>69179306.66488974</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$1117.52</t>
+          <t>$1115.62</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12301850.26361333</v>
+        <v>12274801.56336783</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$1089.43</t>
+          <t>$1087.04</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$1273.80</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -4232,47 +4232,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$1280.36</t>
+          <t>$1287.00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -4304,47 +4304,47 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$1182.20</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>$1107.39</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>$1079.50</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>167579029.3036288</v>
+        <v>167205854.3141142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4410,12 +4410,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -4425,12 +4425,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4457,12 +4457,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$1287.00</t>
+          <t>$1293.70</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -4472,47 +4472,47 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1190.90</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1117.08</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1088.47</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4529,12 +4529,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$1293.70</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -4544,47 +4544,47 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$1194.52</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>$1118.98</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>$1090.86</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4678,12 +4678,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -4693,47 +4693,47 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -4838,11 +4838,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72292653.22800261</v>
+        <v>72073477.42711987</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87.4%</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66265659.51771308</v>
+        <v>66152711.99830081</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11702135.06326218</v>
+        <v>11676404.98715364</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>160615836.3068877</v>
+        <v>160257982.9104842</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$1213.48</t>
+          <t>$1209.80</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -5140,12 +5140,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>$1136.84</t>
+          <t>$1134.90</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -5155,12 +5155,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>$1108.36</t>
+          <t>$1105.93</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5232,62 +5232,62 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$1314.23</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$1241.95</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$1203.43</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>$1143.26</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>$1128.90</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>5.5%</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>$1241.95</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$1213.48</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>$1146.74</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>$1136.84</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>$1066.81</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>$1100.04</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>6.0%</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>$1068.63</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>$1108.36</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5341,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$1307.32</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -5356,47 +5356,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$1207.09</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>$1130.82</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>$1102.47</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>94936489.31142233</v>
+        <v>94648662.26194052</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$1192.19</t>
+          <t>$1188.58</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -5475,12 +5475,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -5490,12 +5490,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>87896970.87211101</v>
+        <v>87747153.53238915</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$1116.79</t>
+          <t>$1114.89</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15367216.10408691</v>
+        <v>15333427.42896079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$1088.72</t>
+          <t>$1086.32</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$1273.80</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -5683,47 +5683,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5740,12 +5740,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$1280.36</t>
+          <t>$1287.00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -5755,47 +5755,47 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$1182.20</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>$1107.39</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>$1079.50</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>211902649.3724557</v>
+        <v>211431216.308126</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -5861,12 +5861,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5908,12 +5908,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$1287.00</t>
+          <t>$1293.70</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -5923,47 +5923,47 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1190.90</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1117.08</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1088.47</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$1293.70</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -5995,47 +5995,47 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$1194.52</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>$1118.98</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>$1090.86</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -6082,12 +6082,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -6097,12 +6097,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -6144,47 +6144,47 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$1207.09</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -6271,12 +6271,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>$1130.82</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>$1102.47</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6355,62 +6355,62 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$1307.32</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>$1241.95</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$1197.13</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>$1143.26</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>$1122.95</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>5.0%</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>$1241.95</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>$1207.09</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>$1146.74</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>$1130.82</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>$1066.81</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>$1094.22</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>5.5%</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>$1068.63</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>$1102.47</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>91317035.65642436</v>
+        <v>91040182.01320404</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -6464,12 +6464,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1273.80</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -6479,47 +6479,47 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>84106414.00325122</v>
+        <v>83963057.53630488</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -6598,12 +6598,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -6613,12 +6613,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14627668.82907773</v>
+        <v>14595506.23394205</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -6707,12 +6707,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -6722,12 +6722,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6754,12 +6754,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$1273.80</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -6769,47 +6769,47 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>203230703.8497295</v>
+        <v>202778331.1444272</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6850,12 +6850,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$1280.36</t>
+          <t>$1287.00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -6865,47 +6865,47 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$1182.20</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>$1107.39</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>$1079.50</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -6947,12 +6947,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -6962,12 +6962,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -6994,12 +6994,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$1287.00</t>
+          <t>$1293.70</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -7009,47 +7009,47 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1190.90</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1117.08</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1088.47</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7066,12 +7066,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$1293.70</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -7081,47 +7081,47 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$1194.52</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>$1118.98</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>$1090.86</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -7163,12 +7163,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7210,12 +7210,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -7225,47 +7225,47 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$1213.48</t>
+          <t>$1209.80</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -7443,12 +7443,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>$1136.84</t>
+          <t>$1134.90</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -7458,12 +7458,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>$1108.36</t>
+          <t>$1105.93</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7535,62 +7535,62 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$1314.23</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$1241.95</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$1203.43</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>$1143.26</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>$1128.90</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>5.5%</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>$1241.95</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$1213.48</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>$1146.74</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>$1136.84</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>$1066.81</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>$1100.04</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>6.0%</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>$1068.63</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>$1108.36</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7644,12 +7644,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$1307.32</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -7659,47 +7659,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$1207.09</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>$1130.82</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>$1102.47</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7718,11 +7718,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>115255059.5428483</v>
+        <v>114905630.9515166</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.9%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$1191.93</t>
+          <t>$1188.32</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -7778,12 +7778,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -7793,12 +7793,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>106518591.3683476</v>
+        <v>106337034.1220468</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$1116.55</t>
+          <t>$1114.64</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -7887,12 +7887,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -7902,12 +7902,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18436624.16969097</v>
+        <v>18396086.63183944</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$1088.48</t>
+          <t>$1086.08</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$1273.80</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -7986,47 +7986,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$1280.36</t>
+          <t>$1287.00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -8058,47 +8058,47 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$1182.20</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>$1107.39</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>$1079.50</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>256844782.3730921</v>
+        <v>256273258.997608</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -8164,12 +8164,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -8179,12 +8179,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8211,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$1287.00</t>
+          <t>$1293.70</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -8226,47 +8226,47 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1190.90</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1117.08</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1088.47</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8283,12 +8283,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$1293.70</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -8298,47 +8298,47 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$1194.52</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>$1118.98</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>$1090.86</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -8385,12 +8385,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -8400,12 +8400,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8432,12 +8432,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -8447,47 +8447,47 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$1207.09</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -8574,12 +8574,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>$1130.82</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>$1102.47</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8658,62 +8658,62 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$1307.32</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>$1241.95</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$1197.13</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>$1143.26</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>$1122.95</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>5.0%</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>$1241.95</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>$1207.09</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>$1146.74</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>$1130.82</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>$1066.81</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>$1094.22</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>5.5%</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>$1068.63</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>$1102.47</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>110884971.8685153</v>
+        <v>110548792.4446049</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -8767,12 +8767,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1273.80</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -8782,47 +8782,47 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>101947168.4887894</v>
+        <v>101773403.0743089</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -8901,12 +8901,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -8916,12 +8916,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -8950,7 +8950,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17553202.59489328</v>
+        <v>17514607.48073046</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -9010,12 +9010,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -9025,12 +9025,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9057,12 +9057,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$1273.80</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -9072,47 +9072,47 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>246389125.1762404</v>
+        <v>245840585.2236868</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -9153,12 +9153,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$1280.36</t>
+          <t>$1287.00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -9168,47 +9168,47 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$1182.20</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>$1107.39</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>$1079.50</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -9250,12 +9250,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -9265,12 +9265,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9297,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$1287.00</t>
+          <t>$1293.70</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -9312,47 +9312,47 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1190.90</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1117.08</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1088.47</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9369,12 +9369,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$1293.70</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -9384,47 +9384,47 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$1194.52</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>$1118.98</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>$1090.86</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -9466,12 +9466,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -9481,12 +9481,12 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -9528,47 +9528,47 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$1207.09</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -9610,12 +9610,12 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>$1130.82</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -9625,12 +9625,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>$1102.47</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9657,62 +9657,62 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$1307.32</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>$1241.95</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>$1197.13</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>$1143.26</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>$1122.95</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
           <t>5.0%</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>$1241.95</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>$1207.09</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>$1146.74</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>$1130.82</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>$1066.81</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>$1094.22</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
         <is>
           <t>5.5%</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>$1068.63</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>$1102.47</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9729,12 +9729,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1273.80</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -9744,47 +9744,47 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -9826,12 +9826,12 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -9841,12 +9841,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1172.58</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -9898,12 +9898,12 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1099.80</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1071.55</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -9945,12 +9945,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$1273.80</t>
+          <t>$1280.36</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -9960,47 +9960,47 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$1176.14</t>
+          <t>$1178.62</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>$1101.68</t>
+          <t>$1105.50</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>$1073.91</t>
+          <t>$1077.13</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -10017,12 +10017,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$1280.36</t>
+          <t>$1287.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -10032,47 +10032,47 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$1182.20</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>$1107.39</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>$1079.50</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1184.73</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -10114,12 +10114,12 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1111.26</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -10129,12 +10129,12 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1082.77</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -10161,12 +10161,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$1287.00</t>
+          <t>$1293.70</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -10176,47 +10176,47 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$1188.33</t>
+          <t>$1190.90</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>$1113.15</t>
+          <t>$1117.08</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>$1085.15</t>
+          <t>$1088.47</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -10233,12 +10233,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$1293.70</t>
+          <t>$1300.47</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -10248,47 +10248,47 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$1194.52</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>$1118.98</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>$1090.86</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1197.13</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -10330,12 +10330,12 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1122.95</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -10345,12 +10345,12 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1094.22</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -10377,12 +10377,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$1300.47</t>
+          <t>$1307.32</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -10392,47 +10392,47 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$1200.77</t>
+          <t>$1203.43</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>$1146.74</t>
+          <t>$1143.26</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>$1124.87</t>
+          <t>$1128.90</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>$1068.63</t>
+          <t>$1066.81</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>$1096.64</t>
+          <t>$1100.04</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>$1036.32</t>
+          <t>$1034.04</t>
         </is>
       </c>
     </row>
@@ -11168,10 +11168,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3.125621710350737</v>
+        <v>2.535264662675533</v>
       </c>
       <c r="C93" t="n">
-        <v>37.50746052420885</v>
+        <v>30.4231759521064</v>
       </c>
       <c r="D93" t="n">
         <v>1325.5</v>
@@ -11187,10 +11187,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3.219203198684591</v>
+        <v>2.594499818345522</v>
       </c>
       <c r="C94" t="n">
-        <v>38.63043838421509</v>
+        <v>31.13399782014627</v>
       </c>
       <c r="D94" t="n">
         <v>1178.5</v>
@@ -11206,10 +11206,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3.245241879304007</v>
+        <v>2.615485555488377</v>
       </c>
       <c r="C95" t="n">
-        <v>38.94290255164807</v>
+        <v>31.38582666586052</v>
       </c>
       <c r="D95" t="n">
         <v>1083</v>
@@ -11225,10 +11225,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.965333417512237</v>
+        <v>2.405251090230634</v>
       </c>
       <c r="C96" t="n">
-        <v>35.58400101014684</v>
+        <v>28.86301308276761</v>
       </c>
       <c r="D96" t="n">
         <v>1070</v>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="B109" s="10" t="inlineStr">
         <is>
-          <t>3.1% monthly</t>
+          <t>2.5% monthly</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="B113" s="10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
     </row>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="B128" s="10" t="inlineStr">
         <is>
-          <t>$1153.50 PSF positioning</t>
+          <t>$1150.00 PSF positioning</t>
         </is>
       </c>
     </row>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="B129" s="10" t="inlineStr">
         <is>
-          <t>-2.1% to market</t>
+          <t>-2.4% to market</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="B131" s="10" t="inlineStr">
         <is>
-          <t>3.2% monthly</t>
+          <t>2.6% monthly</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B140" s="10" t="inlineStr">
         <is>
-          <t>$519,422-$574,098</t>
+          <t>$517,847-$572,357</t>
         </is>
       </c>
     </row>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B141" s="10" t="inlineStr">
         <is>
-          <t>242.8M</t>
+          <t>242.0M</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="B142" s="10" t="inlineStr">
         <is>
-          <t>$29.5M/month</t>
+          <t>$29.4M/month</t>
         </is>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="B150" s="10" t="inlineStr">
         <is>
-          <t>$1074.93 PSF positioning</t>
+          <t>$1073.10 PSF positioning</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="B151" s="10" t="inlineStr">
         <is>
-          <t>-0.7% to market</t>
+          <t>-0.9% to market</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="B153" s="10" t="inlineStr">
         <is>
-          <t>3.2% monthly</t>
+          <t>2.6% monthly</t>
         </is>
       </c>
     </row>
@@ -11720,7 +11720,7 @@
       </c>
       <c r="B162" s="10" t="inlineStr">
         <is>
-          <t>$811,842-$897,299</t>
+          <t>$810,458-$895,770</t>
         </is>
       </c>
     </row>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="B163" s="10" t="inlineStr">
         <is>
-          <t>223.0M</t>
+          <t>222.7M</t>
         </is>
       </c>
     </row>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="B172" s="10" t="inlineStr">
         <is>
-          <t>$1042.43 PSF positioning</t>
+          <t>$1040.14 PSF positioning</t>
         </is>
       </c>
     </row>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="B173" s="10" t="inlineStr">
         <is>
-          <t>-2.6% to market</t>
+          <t>-2.8% to market</t>
         </is>
       </c>
     </row>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="B175" s="10" t="inlineStr">
         <is>
-          <t>3.0% monthly</t>
+          <t>2.4% monthly</t>
         </is>
       </c>
     </row>
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B184" s="10" t="inlineStr">
         <is>
-          <t>$931,883-$1,029,976</t>
+          <t>$929,834-$1,027,711</t>
         </is>
       </c>
     </row>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="B185" s="10" t="inlineStr">
         <is>
-          <t>38.3M</t>
+          <t>38.2M</t>
         </is>
       </c>
     </row>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
     </row>
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>31.3%</t>
         </is>
       </c>
     </row>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.0%</t>
         </is>
       </c>
     </row>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.2%</t>
         </is>
       </c>
     </row>
@@ -20081,7 +20081,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>• Base absorption at 38.8% vs 5.4% target</t>
+          <t>• Base absorption at 31.3% vs 5.4% target</t>
         </is>
       </c>
     </row>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Price elasticity of -27.14</t>
+          <t>Price elasticity of -27.03</t>
         </is>
       </c>
     </row>
@@ -20167,14 +20167,14 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>• Premium decay pattern: 2.1% over 12 months</t>
+          <t>• Premium decay pattern: 1.3% over 12 months</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>• Unit type spread: $205.63 PSF</t>
+          <t>• Unit type spread: $207.91 PSF</t>
         </is>
       </c>
     </row>
